--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_436__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_436__Reeval_LHS_Modell_1.2.xlsx
@@ -5876,7 +5876,7 @@
                   <c:v>38.98877716064453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.01239395141602</c:v>
+                  <c:v>50.01239013671875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>55.5329475402832</c:v>
@@ -5912,13 +5912,13 @@
                   <c:v>43.73465728759766</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.98088455200195</c:v>
+                  <c:v>39.98088836669922</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>58.93778991699219</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.19940185546875</c:v>
+                  <c:v>42.19939804077148</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>40.5143928527832</c:v>
@@ -5945,7 +5945,7 @@
                   <c:v>49.50741195678711</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44.57688522338867</c:v>
+                  <c:v>44.57688140869141</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>66.97738647460938</c:v>
@@ -5954,13 +5954,13 @@
                   <c:v>38.56142807006836</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.74463272094727</c:v>
+                  <c:v>39.74462890625</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56.73725891113281</c:v>
+                  <c:v>56.73726272583008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44.78483963012695</c:v>
+                  <c:v>44.78483581542969</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>38.88679122924805</c:v>
@@ -5978,10 +5978,10 @@
                   <c:v>48.72327041625977</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56.4041633605957</c:v>
+                  <c:v>56.40417098999023</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.0517578125</c:v>
+                  <c:v>42.05175399780273</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>57.60014724731445</c:v>
@@ -6026,16 +6026,16 @@
                   <c:v>40.85723495483398</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40.94672775268555</c:v>
+                  <c:v>40.94672393798828</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>55.02250289916992</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>40.90252685546875</c:v>
+                  <c:v>40.90253067016602</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>39.02067565917969</c:v>
+                  <c:v>39.02067184448242</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>47.68506622314453</c:v>
@@ -6044,7 +6044,7 @@
                   <c:v>40.6274528503418</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>61.10024642944336</c:v>
+                  <c:v>61.10025405883789</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59.93289947509766</c:v>
@@ -6065,13 +6065,13 @@
                   <c:v>54.86037063598633</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>50.14069366455078</c:v>
+                  <c:v>50.14070129394531</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42.90713882446289</c:v>
+                  <c:v>42.90713500976562</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52.55354690551758</c:v>
+                  <c:v>52.55355453491211</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>61.67991256713867</c:v>
@@ -6113,7 +6113,7 @@
                   <c:v>49.53165817260742</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42.00460815429688</c:v>
+                  <c:v>42.00460433959961</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>54.73897933959961</c:v>
@@ -6125,13 +6125,13 @@
                   <c:v>50.5919189453125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>40.05332565307617</c:v>
+                  <c:v>40.05332183837891</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>69.54404449462891</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>45.15689849853516</c:v>
+                  <c:v>45.15689468383789</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>50.07485198974609</c:v>
@@ -6143,7 +6143,7 @@
                   <c:v>49.46413040161133</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>51.54707717895508</c:v>
+                  <c:v>51.54706954956055</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>52.46485900878906</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>38.54877090454102</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>52.23714447021484</c:v>
+                  <c:v>52.23713684082031</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>44.07311248779297</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>48.13182067871094</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>41.56119155883789</c:v>
+                  <c:v>41.56118774414062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6891,7 +6891,7 @@
         <v>81.04689999999999</v>
       </c>
       <c r="F3">
-        <v>50.01239395141602</v>
+        <v>50.01239013671875</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -7191,7 +7191,7 @@
         <v>92.2294</v>
       </c>
       <c r="F15">
-        <v>39.98088455200195</v>
+        <v>39.98088836669922</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>42.19940185546875</v>
+        <v>42.19939804077148</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>98.4127</v>
       </c>
       <c r="F26">
-        <v>44.57688522338867</v>
+        <v>44.57688140869141</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>39.74463272094727</v>
+        <v>39.74462890625</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>56.73725891113281</v>
+        <v>56.73726272583008</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>87.8788</v>
       </c>
       <c r="F31">
-        <v>44.78483963012695</v>
+        <v>44.78483581542969</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>56.4041633605957</v>
+        <v>56.40417098999023</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.404</v>
       </c>
       <c r="F38">
-        <v>42.0517578125</v>
+        <v>42.05175399780273</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>97.9697</v>
       </c>
       <c r="F53">
-        <v>40.94672775268555</v>
+        <v>40.94672393798828</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>92.267</v>
       </c>
       <c r="F55">
-        <v>40.90252685546875</v>
+        <v>40.90253067016602</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>63.5626</v>
       </c>
       <c r="F56">
-        <v>39.02067565917969</v>
+        <v>39.02067184448242</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>98.1859</v>
       </c>
       <c r="F59">
-        <v>61.10024642944336</v>
+        <v>61.10025405883789</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>50.14069366455078</v>
+        <v>50.14070129394531</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>42.90713882446289</v>
+        <v>42.90713500976562</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>52.55354690551758</v>
+        <v>52.55355453491211</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>97.7243</v>
       </c>
       <c r="F82">
-        <v>42.00460815429688</v>
+        <v>42.00460433959961</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>40.05332565307617</v>
+        <v>40.05332183837891</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>45.15689849853516</v>
+        <v>45.15689468383789</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>51.54707717895508</v>
+        <v>51.54706954956055</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>52.23714447021484</v>
+        <v>52.23713684082031</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>41.56119155883789</v>
+        <v>41.56118774414062</v>
       </c>
     </row>
     <row r="100" spans="1:6">
